--- a/poziom2-Iza.xlsx
+++ b/poziom2-Iza.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="31">
   <si>
     <t>x</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>12,0</t>
+  </si>
+  <si>
+    <t>0,0</t>
   </si>
 </sst>
 </file>
@@ -200,1118 +203,7 @@
     <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="182">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3399"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF666699"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006600"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1829,7 +721,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1944,7 +838,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -2011,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
@@ -2064,7 +958,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -2309,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2429,37 +1323,37 @@
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>25</v>
@@ -2553,73 +1447,73 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A20+20</f>
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ref="A22:A31" si="0">A21+20</f>
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2631,19 +1525,19 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" ref="A33:A44" si="1">IF(A1 = "#","",B$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;A1)</f>
-        <v>0,100,50,20,13,2</v>
+        <v>0,200,50,20,13,2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0,120,50,20,7,0</v>
+        <v>0,220,50,20,7,0</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0,140,50,20,0,6</v>
+        <v>0,240,50,20,0,0</v>
       </c>
     </row>
     <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -2652,19 +1546,19 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0,180,50,20,6,8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0,280,50,20,6,8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2673,16 +1567,16 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>0,240,50,20,8,9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0,340,50,20,8,9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2694,7 +1588,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2703,22 +1597,22 @@
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" ref="A45:A56" si="2">IF(B1 = "#","",C$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;B1)</f>
-        <v>50,100,50,20,3,9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50,200,50,20,3,9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2730,19 +1624,19 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2754,67 +1648,67 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>50,300,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>50,400,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>50,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50,420,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" ref="A57:A68" si="3">IF(C1 = "#","",D$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;C1)</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>100,180,50,20,8,6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>100,280,50,20,8,6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2826,52 +1720,52 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>100,300,50,20,0,7</v>
+        <v>100,400,50,20,0,7</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>100,320,50,20,0,6</v>
+        <v>100,420,50,20,0,0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" ref="A69:A80" si="4">IF(D1 = "#","",E$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;D1)</f>
-        <v>150,100,50,20,0,6</v>
+        <v>150,200,50,20,0,6</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,120,50,20,0,6</v>
+        <v>150,220,50,20,0,6</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,140,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>150,240,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,160,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>150,260,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,180,50,20,0,6</v>
+        <v>150,280,50,20,0,6</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -2880,85 +1774,85 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,300,50,20,9,5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>150,400,50,20,9,5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>150,320,50,20,0,6</v>
+        <v>150,420,50,20,0,0</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f t="shared" ref="A81:A92" si="5">IF(E1 = "#","",F$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;E1)</f>
-        <v>200,100,50,20,4,0</v>
+        <v>200,200,50,20,4,0</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,120,50,20,4,0</v>
+        <v>200,220,50,20,4,0</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,140,50,20,4,0</v>
+        <v>200,240,50,20,4,0</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,160,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>200,260,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,180,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+        <v>200,280,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2970,52 +1864,52 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,300,50,20,9,6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>200,400,50,20,9,6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>200,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+        <v>200,420,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f t="shared" ref="A93:A104" si="6">IF(F1 = "#","",G$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;F1)</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>250,160,50,20,8,6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>250,260,50,20,8,6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>250,180,50,20,0,6</v>
+        <v>250,280,50,20,0,6</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -3027,82 +1921,82 @@
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>250,220,50,20,2,6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+        <v>250,320,50,20,2,6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>250,300,50,20,9,7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>250,400,50,20,9,7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>250,320,50,20,0,6</v>
+        <v>250,420,50,20,0,0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f t="shared" ref="A105:A116" si="7">IF(G1 = "#","",H$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;G1)</f>
-        <v>300,100,50,20,5,o</v>
+        <v>300,200,50,20,5,o</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,120,50,20,5,o</v>
+        <v>300,220,50,20,5,o</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,140,50,20,5,o</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>300,240,50,20,5,o</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,160,50,20,5,o</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>300,260,50,20,5,o</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,180,50,20,5,o</v>
+        <v>300,280,50,20,5,o</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,200,50,20,5,o</v>
+        <v>300,300,50,20,5,o</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,220,50,20,5,o</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+        <v>300,320,50,20,5,o</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3114,49 +2008,49 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,300,50,20,9,8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>300,400,50,20,9,8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>300,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+        <v>300,420,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f t="shared" ref="A117:A128" si="8">IF(H1 = "#","",I$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;H1)</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3168,13 +2062,13 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -3189,40 +2083,40 @@
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>350,280,50,20,3,9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>350,380,50,20,3,9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>350,300,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>350,400,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>350,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+        <v>350,420,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f t="shared" ref="A129:A140" si="9">IF(I1 = "#","",J$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;I1)</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -3231,22 +2125,22 @@
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>400,180,50,20,12,4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>400,280,50,20,12,4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>400,200,50,20,12,0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+        <v>400,300,50,20,12,0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -3258,7 +2152,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -3270,25 +2164,25 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>400,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+        <v>400,420,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f t="shared" ref="A141:A152" si="10">IF(J1 = "#","",K$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;J1)</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -3300,25 +2194,25 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>450,180,50,20,12,3</v>
+        <v>450,280,50,20,12,3</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>450,200,50,20,12,0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+        <v>450,300,50,20,12,0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -3330,7 +2224,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -3342,19 +2236,19 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>450,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+        <v>450,420,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f t="shared" ref="A153:A164" si="11">IF(K1 = "#","",L$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;K1)</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -3363,7 +2257,7 @@
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>500,140,50,20,1,1</v>
+        <v>500,240,50,20,1,1</v>
       </c>
     </row>
     <row r="156" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -3384,61 +2278,61 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>500,300,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+        <v>500,400,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="str">
         <f t="shared" si="11"/>
-        <v>500,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500,420,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
         <f t="shared" ref="A165:A176" si="12">IF(L1 = "#","",M$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;L1)</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3450,19 +2344,19 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3474,7 +2368,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3486,34 +2380,34 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>550,320,50,20,0,6</v>
+        <v>550,420,50,20,0,0</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
         <f t="shared" ref="A177:A188" si="13">IF(M1 = "#","",N$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;M1)</f>
-        <v>600,100,50,20,2,3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>600,200,50,20,2,3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>600,160,50,20,3,2</v>
+        <v>600,260,50,20,3,2</v>
       </c>
     </row>
     <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -3528,13 +2422,13 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -3543,10 +2437,10 @@
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>600,260,50,20,4,5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+        <v>600,360,50,20,4,5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -3558,58 +2452,58 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>600,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+        <v>600,420,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
         <f t="shared" ref="A189:A200" si="14">IF(N1 = "#","",O$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;N1)</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>650,180,50,20,7,0</v>
+        <v>650,280,50,20,7,0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>650,200,50,20,7,0</v>
+        <v>650,300,50,20,7,0</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>650,220,50,20,7,0</v>
+        <v>650,320,50,20,7,0</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>650,240,50,20,7,0</v>
+        <v>650,340,50,20,7,0</v>
       </c>
     </row>
     <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
@@ -3618,25 +2512,25 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>650,300,50,20,0,6</v>
+        <v>650,400,50,20,0,6</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
         <f t="shared" si="14"/>
-        <v>650,320,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+        <v>650,420,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
         <f t="shared" ref="A201:A212" si="15">IF(O1 = "#","",P$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;O1)</f>
         <v/>
@@ -3645,40 +2539,40 @@
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>700,120,50,20,4,0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+        <v>700,220,50,20,4,0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>700,180,50,20,5,1</v>
+        <v>700,280,50,20,5,1</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>700,200,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+        <v>700,300,50,20,0,6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3690,7 +2584,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -3708,19 +2602,19 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="str">
         <f t="shared" ref="A213:A224" si="16">IF(P1 = "#","",Q$18&amp;""&amp;$A$15&amp;""&amp;$A20&amp;""&amp;$A$15&amp;""&amp;50&amp;""&amp;$A$15&amp;""&amp;20&amp;""&amp;$A$15&amp;""&amp;P1)</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -3738,13 +2632,13 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -3753,16 +2647,16 @@
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>750,240,50,20,1,2</v>
+        <v>750,340,50,20,1,2</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="str">
         <f t="shared" si="16"/>
-        <v>750,260,50,20,0,6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+        <v>750,360,50,20,0,0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -3774,7 +2668,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -3792,46 +2686,46 @@
     <mergeCell ref="R3:S13"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:P12">
-    <cfRule type="beginsWith" dxfId="181" priority="1" operator="beginsWith" text="13,">
+    <cfRule type="beginsWith" dxfId="27" priority="1" operator="beginsWith" text="13,">
       <formula>LEFT(A1,LEN("13,"))="13,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="2" operator="beginsWith" text="12,">
+    <cfRule type="beginsWith" dxfId="26" priority="2" operator="beginsWith" text="12,">
       <formula>LEFT(A1,LEN("12,"))="12,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="179" priority="3" operator="beginsWith" text="11,">
+    <cfRule type="beginsWith" dxfId="25" priority="3" operator="beginsWith" text="11,">
       <formula>LEFT(A1,LEN("11,"))="11,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="4" operator="beginsWith" text="10,">
+    <cfRule type="beginsWith" dxfId="24" priority="4" operator="beginsWith" text="10,">
       <formula>LEFT(A1,LEN("10,"))="10,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="177" priority="5" operator="beginsWith" text="9,">
+    <cfRule type="beginsWith" dxfId="23" priority="5" operator="beginsWith" text="9,">
       <formula>LEFT(A1,LEN("9,"))="9,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="176" priority="6" operator="beginsWith" text="8,">
+    <cfRule type="beginsWith" dxfId="22" priority="6" operator="beginsWith" text="8,">
       <formula>LEFT(A1,LEN("8,"))="8,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="175" priority="7" operator="beginsWith" text="7,">
+    <cfRule type="beginsWith" dxfId="21" priority="7" operator="beginsWith" text="7,">
       <formula>LEFT(A1,LEN("7,"))="7,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="8" operator="beginsWith" text="6,">
+    <cfRule type="beginsWith" dxfId="20" priority="8" operator="beginsWith" text="6,">
       <formula>LEFT(A1,LEN("6,"))="6,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="173" priority="9" operator="beginsWith" text="5,">
+    <cfRule type="beginsWith" dxfId="19" priority="9" operator="beginsWith" text="5,">
       <formula>LEFT(A1,LEN("5,"))="5,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="10" operator="beginsWith" text="4,">
+    <cfRule type="beginsWith" dxfId="18" priority="10" operator="beginsWith" text="4,">
       <formula>LEFT(A1,LEN("4,"))="4,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="171" priority="11" operator="beginsWith" text="3,">
+    <cfRule type="beginsWith" dxfId="17" priority="11" operator="beginsWith" text="3,">
       <formula>LEFT(A1,LEN("3,"))="3,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="12" operator="beginsWith" text="2,">
+    <cfRule type="beginsWith" dxfId="16" priority="12" operator="beginsWith" text="2,">
       <formula>LEFT(A1,LEN("2,"))="2,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="169" priority="13" operator="beginsWith" text="1,">
+    <cfRule type="beginsWith" dxfId="15" priority="13" operator="beginsWith" text="1,">
       <formula>LEFT(A1,LEN("1,"))="1,"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="14" operator="beginsWith" text="0,">
+    <cfRule type="beginsWith" dxfId="14" priority="14" operator="beginsWith" text="0,">
       <formula>LEFT(A1,LEN("0,"))="0,"</formula>
     </cfRule>
   </conditionalFormatting>
